--- a/Instances/02_NonStationary_b2_fe25_en_rk50_ll0_l20_HFalse_c2.xlsx
+++ b/Instances/02_NonStationary_b2_fe25_en_rk50_ll0_l20_HFalse_c2.xlsx
@@ -2547,7 +2547,7 @@
         <v>0.032</v>
       </c>
       <c r="E2" t="n">
-        <v>1329.472</v>
+        <v>1763.136</v>
       </c>
       <c r="F2" t="n">
         <v>0.064</v>
@@ -2579,7 +2579,7 @@
         <v>0.03702</v>
       </c>
       <c r="E3" t="n">
-        <v>75.03360000000001</v>
+        <v>81.96480000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0.07403999999999999</v>
@@ -2611,7 +2611,7 @@
         <v>0.037</v>
       </c>
       <c r="E4" t="n">
-        <v>10.9728</v>
+        <v>33.16800000000001</v>
       </c>
       <c r="F4" t="n">
         <v>0.074</v>
@@ -2643,7 +2643,7 @@
         <v>0.03694</v>
       </c>
       <c r="E5" t="n">
-        <v>104.7648</v>
+        <v>145.8816</v>
       </c>
       <c r="F5" t="n">
         <v>0.07388</v>
@@ -2675,7 +2675,7 @@
         <v>0.03694</v>
       </c>
       <c r="E6" t="n">
-        <v>8.649600000000001</v>
+        <v>3.456</v>
       </c>
       <c r="F6" t="n">
         <v>0.07388</v>
@@ -2701,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>18891</v>
+        <v>4858</v>
       </c>
       <c r="D7" t="n">
         <v>0.03702</v>
@@ -2733,7 +2733,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>6897</v>
       </c>
       <c r="D8" t="n">
         <v>0.037</v>
@@ -2765,7 +2765,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>24370</v>
+        <v>31261</v>
       </c>
       <c r="D9" t="n">
         <v>0.03694</v>
@@ -2797,7 +2797,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1516</v>
+        <v>407</v>
       </c>
       <c r="D10" t="n">
         <v>0.03694</v>
@@ -2829,13 +2829,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>15673</v>
+        <v>16527</v>
       </c>
       <c r="D11" t="n">
         <v>0.03222</v>
       </c>
       <c r="E11" t="n">
-        <v>3.439040000000001</v>
+        <v>3.756720000000001</v>
       </c>
       <c r="F11" t="n">
         <v>0.06444</v>
@@ -2861,13 +2861,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1191</v>
+        <v>9599</v>
       </c>
       <c r="D12" t="n">
         <v>0.0322</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4572</v>
+        <v>1.382</v>
       </c>
       <c r="F12" t="n">
         <v>0.0644</v>
@@ -2893,13 +2893,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>22541</v>
+        <v>27768</v>
       </c>
       <c r="D13" t="n">
         <v>0.03214</v>
       </c>
       <c r="E13" t="n">
-        <v>3.05564</v>
+        <v>4.25488</v>
       </c>
       <c r="F13" t="n">
         <v>0.06428</v>
@@ -2925,13 +2925,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>2562</v>
+        <v>1390</v>
       </c>
       <c r="D14" t="n">
         <v>0.03214</v>
       </c>
       <c r="E14" t="n">
-        <v>0.25228</v>
+        <v>0.1008</v>
       </c>
       <c r="F14" t="n">
         <v>0.06428</v>
@@ -3029,16 +3029,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13908</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3004</v>
       </c>
       <c r="I2" t="n">
-        <v>16256</v>
+        <v>11505</v>
       </c>
       <c r="J2" t="n">
-        <v>1516</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -3073,16 +3073,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4983</v>
+        <v>4858</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3893</v>
       </c>
       <c r="I3" t="n">
-        <v>8114</v>
+        <v>19756</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>407</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -3117,16 +3117,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>15673</v>
+        <v>10125</v>
       </c>
       <c r="H4" t="n">
-        <v>1191</v>
+        <v>9599</v>
       </c>
       <c r="I4" t="n">
-        <v>8439</v>
+        <v>19391</v>
       </c>
       <c r="J4" t="n">
-        <v>2562</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3161,16 +3161,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>6402</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>14102</v>
+        <v>8377</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1390</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -3205,16 +3205,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>4513</v>
+        <v>21305</v>
       </c>
       <c r="H6" t="n">
-        <v>4522</v>
+        <v>775</v>
       </c>
       <c r="I6" t="n">
-        <v>7652</v>
+        <v>16948</v>
       </c>
       <c r="J6" t="n">
-        <v>426</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -3309,16 +3309,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1738.5</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>375.5</v>
       </c>
       <c r="I2" t="n">
-        <v>2032</v>
+        <v>1438.125</v>
       </c>
       <c r="J2" t="n">
-        <v>189.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -3353,16 +3353,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>934.3125</v>
+        <v>910.875</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>729.9375</v>
       </c>
       <c r="I3" t="n">
-        <v>1521.375</v>
+        <v>3704.25</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.3125</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -3397,16 +3397,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3428.46875</v>
+        <v>2214.84375</v>
       </c>
       <c r="H4" t="n">
-        <v>260.53125</v>
+        <v>2099.78125</v>
       </c>
       <c r="I4" t="n">
-        <v>1846.03125</v>
+        <v>4241.78125</v>
       </c>
       <c r="J4" t="n">
-        <v>560.4375</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3441,16 +3441,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1500.46875</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>3305.15625</v>
+        <v>1963.359375</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>325.78125</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -3485,16 +3485,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1092.9921875</v>
+        <v>5159.8046875</v>
       </c>
       <c r="H6" t="n">
-        <v>1095.171875</v>
+        <v>187.6953125</v>
       </c>
       <c r="I6" t="n">
-        <v>1853.21875</v>
+        <v>4104.59375</v>
       </c>
       <c r="J6" t="n">
-        <v>103.171875</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -3538,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>207730</v>
+        <v>275490</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3546,7 +3546,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>581644</v>
+        <v>771372</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3554,7 +3554,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>623190</v>
+        <v>826470</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3562,7 +3562,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1246380</v>
+        <v>1652940</v>
       </c>
     </row>
   </sheetData>
